--- a/docs/RESULTS 6days.xlsx
+++ b/docs/RESULTS 6days.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="6 days" sheetId="1" r:id="rId1"/>
-    <sheet name="48 hr" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>A/A</t>
   </si>
@@ -108,129 +107,6 @@
   </si>
   <si>
     <t>116km/72.08 miles</t>
-  </si>
-  <si>
-    <t> POL SAGAN LUKASZ</t>
-  </si>
-  <si>
-    <t>381km/236.74 miles</t>
-  </si>
-  <si>
-    <t> IRL O'MARA FIONNUALA</t>
-  </si>
-  <si>
-    <t>313km/194.49 miles</t>
-  </si>
-  <si>
-    <t> GRE DOUROUDAKIS NICK</t>
-  </si>
-  <si>
-    <t>305km/189.52 miles</t>
-  </si>
-  <si>
-    <t> RUS REGETSIY VALERIY</t>
-  </si>
-  <si>
-    <t>19/12.1978</t>
-  </si>
-  <si>
-    <t>298km/185.17 miles</t>
-  </si>
-  <si>
-    <t> PHL ESPINA ROLANDO</t>
-  </si>
-  <si>
-    <t>281km/174.61 miles</t>
-  </si>
-  <si>
-    <t> ISR MOR NIR</t>
-  </si>
-  <si>
-    <t>252km/156.59 miles</t>
-  </si>
-  <si>
-    <t> ISR MOR YANIV</t>
-  </si>
-  <si>
-    <t> GRE XENOULIS AKIS</t>
-  </si>
-  <si>
-    <t>247km/153.48 miles</t>
-  </si>
-  <si>
-    <t> BLR KANDYBA ULADZIMIR</t>
-  </si>
-  <si>
-    <t>14.01.1964</t>
-  </si>
-  <si>
-    <t>237km/147.26 miles</t>
-  </si>
-  <si>
-    <t> GRE VARADAS ILIAS</t>
-  </si>
-  <si>
-    <t> GRE KIOURELI CHRISTINA</t>
-  </si>
-  <si>
-    <t>228km/141.67 miles</t>
-  </si>
-  <si>
-    <t> PHL BRILLANTES REX GERONIMO</t>
-  </si>
-  <si>
-    <t>225km/139.81 miles</t>
-  </si>
-  <si>
-    <t> GRE SAITIS PANAGIOTIS</t>
-  </si>
-  <si>
-    <t>201km/124.90 miles</t>
-  </si>
-  <si>
-    <t> LTU SKIPITIENE VAIVA</t>
-  </si>
-  <si>
-    <t>196km/121.79 miles</t>
-  </si>
-  <si>
-    <t> HUN VERESS BELA</t>
-  </si>
-  <si>
-    <t>183km/113.71 miles</t>
-  </si>
-  <si>
-    <t> GRE DIMOPOULOS CHRISTOS</t>
-  </si>
-  <si>
-    <t>182km/113.09 miles</t>
-  </si>
-  <si>
-    <t> GRE MAIPAS MICHAIL</t>
-  </si>
-  <si>
-    <t>161km/100.04 miles</t>
-  </si>
-  <si>
-    <t> IRL HANNON DON</t>
-  </si>
-  <si>
-    <t>115km/71.46 miles</t>
-  </si>
-  <si>
-    <t> GRE MAGKLARAS ATHANASIOS</t>
-  </si>
-  <si>
-    <t>52km/32.31 miles</t>
-  </si>
-  <si>
-    <t> GRE PAPAMICHAIL IOANNIS</t>
-  </si>
-  <si>
-    <t>29km/18.02 miles</t>
-  </si>
-  <si>
-    <t>48HR</t>
   </si>
   <si>
     <t>6D.</t>
@@ -240,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,19 +137,6 @@
       <color rgb="FF002060"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="161"/>
     </font>
   </fonts>
@@ -312,24 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -689,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +562,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -727,7 +579,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -744,7 +596,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -761,7 +613,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -778,7 +630,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -795,7 +647,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -812,7 +664,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -829,7 +681,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -846,7 +698,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -863,7 +715,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -880,7 +732,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -897,7 +749,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -911,389 +763,6 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="7">
-        <v>30374</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="7">
-        <v>23972</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="7">
-        <v>27565</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="7">
-        <v>26973</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="7">
-        <v>30772</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7">
-        <v>30368</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1969</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="7">
-        <v>24300</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1971</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="7">
-        <v>27445</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="7">
-        <v>24728</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="7">
-        <v>30565</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="7">
-        <v>28289</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1952</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="7">
-        <v>20695</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="7">
-        <v>26681</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="7">
-        <v>26088</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="7">
-        <v>21261</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/RESULTS 6days.xlsx
+++ b/docs/RESULTS 6days.xlsx
@@ -4,119 +4,271 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="8100"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="6 days" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
-  <si>
-    <t>A/A</t>
-  </si>
-  <si>
-    <t>GENDER</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>YOB</t>
-  </si>
-  <si>
-    <t>TOTAL KM</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWE-- HALLNEBY JOHNNY </t>
-  </si>
-  <si>
-    <t>720km/447.39 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRE --THANOS NIKOS </t>
-  </si>
-  <si>
-    <t>691km/429.37 miles</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JENSEN LENA KRISTINA </t>
-  </si>
-  <si>
-    <t>647km/402.03 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRA MOREL JACQUES </t>
-  </si>
-  <si>
-    <t>621.656km/385.87 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POL  MALGORZATA </t>
-  </si>
-  <si>
-    <t>620.780km/385.25 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPN OKIYAMA HIROKO </t>
-  </si>
-  <si>
-    <t>601km/373.44 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRE NOMIKOS NIKITAS </t>
-  </si>
-  <si>
-    <t>574.938km/357.29 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLN BARIC ZDRAVKO </t>
-  </si>
-  <si>
-    <t>534km/331.81 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER BAUER EDDA </t>
-  </si>
-  <si>
-    <t>516.688km/320.63 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITA UGOLINI LEONARDO </t>
-  </si>
-  <si>
-    <t>441km/274.02 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWE RITELLA ANN </t>
-  </si>
-  <si>
-    <t>235km/146.02 miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWE SWARDH TOMMY </t>
-  </si>
-  <si>
-    <t>116km/72.08 miles</t>
-  </si>
-  <si>
-    <t>6D.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>M/F</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>KIND</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>PLACE-COUNTRY</t>
+  </si>
+  <si>
+    <t>RACE NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THE ATHENS 12th INTERNATIONAL ULTRAMARATHON FESTIVAL 2017</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Athens Greece</t>
+  </si>
+  <si>
+    <t>Athens Ultramarathon Festival</t>
+  </si>
+  <si>
+    <t>D.O.B.</t>
+  </si>
+  <si>
+    <t>720km</t>
+  </si>
+  <si>
+    <t>HALLNEBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHNNY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.03.1972 </t>
+  </si>
+  <si>
+    <t>691km</t>
+  </si>
+  <si>
+    <t>THANOS</t>
+  </si>
+  <si>
+    <t>NIKOS</t>
+  </si>
+  <si>
+    <t>29.10.1972</t>
+  </si>
+  <si>
+    <t>647km</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JENSEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENA KRISTINA </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>24.02.1967</t>
+  </si>
+  <si>
+    <t>621.656km</t>
+  </si>
+  <si>
+    <t>MOREL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JACQUES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRA </t>
+  </si>
+  <si>
+    <t>06.07.1950</t>
+  </si>
+  <si>
+    <t>620.780km</t>
+  </si>
+  <si>
+    <t>KARKOSZKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALGORZATA </t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>14.06.1980</t>
+  </si>
+  <si>
+    <t>601km</t>
+  </si>
+  <si>
+    <t>OKIYAMA</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>21.04.1962</t>
+  </si>
+  <si>
+    <t>574.938km</t>
+  </si>
+  <si>
+    <t>NOMIKOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIKITAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE  </t>
+  </si>
+  <si>
+    <t>16.03.1957</t>
+  </si>
+  <si>
+    <t>534km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDRAVKO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLN </t>
+  </si>
+  <si>
+    <t>16.10.1960</t>
+  </si>
+  <si>
+    <t>516.688km</t>
+  </si>
+  <si>
+    <t>BAUER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GER  </t>
+  </si>
+  <si>
+    <t>14.07.1944</t>
+  </si>
+  <si>
+    <t>441km</t>
+  </si>
+  <si>
+    <t>UGOLINI</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>18.01.1976</t>
+  </si>
+  <si>
+    <t>235km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RITELLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE </t>
+  </si>
+  <si>
+    <t>116km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWARDH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMMY </t>
+  </si>
+  <si>
+    <t>30.12.1957</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>13.02.2017</t>
+  </si>
+  <si>
+    <t>distance (KM)          run in 72h</t>
+  </si>
+  <si>
+    <t>distance (KM)          run in 48h</t>
+  </si>
+  <si>
+    <t>distance (KM)          run in 24h</t>
+  </si>
+  <si>
+    <t>01.01.1973</t>
+  </si>
+  <si>
+    <t>NAME   (SURNAME)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FIRST     NAME</t>
+  </si>
+  <si>
+    <t>6days RACE RESULTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,30 +277,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Book Antiqua"/>
+      <name val="Century Schoolbook"/>
       <family val="1"/>
       <charset val="161"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,21 +409,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,247 +823,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G3" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="10">
+        <v>388</v>
+      </c>
+      <c r="N5" s="11">
+        <v>295</v>
+      </c>
+      <c r="O5" s="12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="10">
+        <v>356</v>
+      </c>
+      <c r="N6" s="11">
+        <v>242</v>
+      </c>
+      <c r="O6" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="10">
+        <v>355</v>
+      </c>
+      <c r="N7" s="11">
+        <v>270</v>
+      </c>
+      <c r="O7" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="10">
+        <v>328</v>
+      </c>
+      <c r="N8" s="11">
+        <v>235</v>
+      </c>
+      <c r="O8" s="12">
+        <v>140</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
+    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="10">
+        <v>351</v>
+      </c>
+      <c r="N9" s="11">
+        <v>251</v>
+      </c>
+      <c r="O9" s="12">
+        <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
-        <v>26380</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="10">
+        <v>362</v>
+      </c>
+      <c r="N10" s="11">
+        <v>254</v>
+      </c>
+      <c r="O10" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="10">
+        <v>359</v>
+      </c>
+      <c r="N11" s="11">
+        <v>258</v>
+      </c>
+      <c r="O11" s="12">
+        <v>152</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
-        <v>26601</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="10">
+        <v>286</v>
+      </c>
+      <c r="N12" s="11">
+        <v>203</v>
+      </c>
+      <c r="O12" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="10">
+        <v>271</v>
+      </c>
+      <c r="N13" s="11">
+        <v>181</v>
+      </c>
+      <c r="O13" s="12">
+        <v>104</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="10">
+        <v>234</v>
+      </c>
+      <c r="N14" s="11">
+        <v>167</v>
+      </c>
+      <c r="O14" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
-        <v>24527</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="10">
+        <v>212</v>
+      </c>
+      <c r="N15" s="11">
+        <v>160</v>
+      </c>
+      <c r="O15" s="12">
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3">
-        <v>18450</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="L16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3">
-        <v>29386</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>22757</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3">
-        <v>20895</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3">
-        <v>22205</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3">
-        <v>16267</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3">
-        <v>27777</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3">
-        <v>26967</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3">
-        <v>21184</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
+      <c r="M16" s="10">
+        <v>1.4306516203703705E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>9.0593402777777773E-3</v>
+      </c>
+      <c r="O16" s="12">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>